--- a/src/test/resources/batch/ighv-premanifest.xlsx
+++ b/src/test/resources/batch/ighv-premanifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsoehalim/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsoehalim/eclipse-workspace/cora/src/test/resources/batch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CEF922-D2AE-5D42-B47E-F61F76DD29CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D772D977-B444-7E48-8F98-2E8228252E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="460" windowWidth="35840" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pre-manifest template" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,11 @@
     <definedName name="Directives">lookups!$L$4:$L$5</definedName>
     <definedName name="Ethnicity">lookups!$O$4:$O$5</definedName>
     <definedName name="PCO">lookups!$G$4</definedName>
-    <definedName name="Product_Names">lookups!$A$4:$A$59</definedName>
+    <definedName name="Product_Names">lookups!$A$4:$A$58</definedName>
     <definedName name="Quant">lookups!$J$4</definedName>
     <definedName name="Race">lookups!$N$4:$N$9</definedName>
     <definedName name="Sex">lookups!$M$4:$M$6</definedName>
-    <definedName name="SKU_VLookup">lookups!$A$4:$B$59</definedName>
+    <definedName name="SKU_VLookup">lookups!$A$4:$B$58</definedName>
     <definedName name="Species">lookups!$K$4:$K$5</definedName>
     <definedName name="Specimen_Sources">lookups!$E$4:$E$15</definedName>
     <definedName name="Specimen_Types">lookups!$D$4:$D$18</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="244">
   <si>
     <t>Cora Research Order Pre-manifest</t>
   </si>
@@ -245,568 +245,550 @@
     <t>B-cell 2.0 Clonality (RUO + IgHV)</t>
   </si>
   <si>
+    <t>Container5</t>
+  </si>
+  <si>
+    <t>&lt;/SAMPLE ENTRIES&gt;</t>
+  </si>
+  <si>
+    <t>Generated by</t>
+  </si>
+  <si>
+    <t>Verified by</t>
+  </si>
+  <si>
+    <t>lookup values driving dropdowns in prior columns:  DO NOT EDIT</t>
+  </si>
+  <si>
+    <t>Product Code Lookup</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Quant</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Ethinicity</t>
+  </si>
+  <si>
+    <t>B-cell 2.0 Clonality (IUO IVD-extract)</t>
+  </si>
+  <si>
+    <t>CSS70001</t>
+  </si>
+  <si>
+    <t>96 well plate</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>B cells</t>
+  </si>
+  <si>
+    <t>vblocks</t>
+  </si>
+  <si>
+    <t>AutoAcceptQC</t>
+  </si>
+  <si>
+    <t>Cell-free</t>
+  </si>
+  <si>
+    <t>Do Not Quant</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>RemoveFailedReplicates</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>American Indian or Alaska Native</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>B-cell 2.0 Tracking (IUO IVD-extract)</t>
+  </si>
+  <si>
+    <t>CSS70002</t>
+  </si>
+  <si>
+    <t>Bone Marrow Aspirate Slides</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ManualAcceptQC</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>RetainFailedReplicates</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>B-cell 2.0 Clonality (RUO)</t>
+  </si>
+  <si>
+    <t>ISS80006</t>
+  </si>
+  <si>
+    <t>Vacutainer box</t>
+  </si>
+  <si>
+    <t>cDNA</t>
+  </si>
+  <si>
+    <t>BMMC</t>
+  </si>
+  <si>
+    <t>AlwaysAcceptQC</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Black or African American</t>
+  </si>
+  <si>
+    <t>B-cell 2.0 Tracking (RUO)</t>
+  </si>
+  <si>
+    <t>ISS80005</t>
+  </si>
+  <si>
+    <t>Conical box</t>
+  </si>
+  <si>
+    <t>Cell Pellet</t>
+  </si>
+  <si>
+    <t>Bone Marrow</t>
+  </si>
+  <si>
+    <t>Native Hawaiian or Other Pacific Islander</t>
+  </si>
+  <si>
+    <t>B-cell 2.0 Clonality (IUO flex-extract)</t>
+  </si>
+  <si>
+    <t>ISS80008</t>
+  </si>
+  <si>
+    <t>25-Slide box</t>
+  </si>
+  <si>
+    <t>Cell Suspension</t>
+  </si>
+  <si>
+    <t>Lymphatic Tissue</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>B-cell 2.0 Tracking (IUO flex-extract)</t>
+  </si>
+  <si>
+    <t>ISS80009</t>
+  </si>
+  <si>
+    <t>100-Slide box</t>
+  </si>
+  <si>
+    <t>cfDNA</t>
+  </si>
+  <si>
+    <t>PBMC</t>
+  </si>
+  <si>
+    <t>B-cell 2.0 Clonality (GCLP RUO)</t>
+  </si>
+  <si>
+    <t>ISS80010</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>FFPE Scrolls</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>B-cell 2.0 Tracking (GCLP RUO)</t>
+  </si>
+  <si>
+    <t>ISS80011</t>
+  </si>
+  <si>
+    <t>Slide w/ coverslip</t>
+  </si>
+  <si>
+    <t>FFPE Slides</t>
+  </si>
+  <si>
+    <t>Splenocyte</t>
+  </si>
+  <si>
+    <t>hsTCRB::Survey</t>
+  </si>
+  <si>
+    <t>ISS10000</t>
+  </si>
+  <si>
+    <t>Matrix rack (8x12)</t>
+  </si>
+  <si>
+    <t>Fresh Bone Marrow</t>
+  </si>
+  <si>
+    <t>T cells</t>
+  </si>
+  <si>
+    <t>hsTCRB::Deep</t>
+  </si>
+  <si>
+    <t>ISS20000</t>
+  </si>
+  <si>
+    <t>Matrix rack (4x6)</t>
+  </si>
+  <si>
+    <t>gDNA</t>
+  </si>
+  <si>
+    <t>Tissue</t>
+  </si>
+  <si>
+    <t>hsTCRB::UltraDeep</t>
+  </si>
+  <si>
+    <t>ISS30000</t>
+  </si>
+  <si>
+    <t>Matrix tube</t>
+  </si>
+  <si>
+    <t>Plasma</t>
+  </si>
+  <si>
+    <t>hsTCRB::MaxDepth</t>
+  </si>
+  <si>
+    <t>ISS40000</t>
+  </si>
+  <si>
+    <t>Matrix tube (5ml)</t>
+  </si>
+  <si>
+    <t>Powdered Tissue</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>hsTCRB::Counting8rxns</t>
+  </si>
+  <si>
+    <t>PSS00003</t>
+  </si>
+  <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t>Serum</t>
+  </si>
+  <si>
+    <t>hsTCRB 1RXN Service (Survey) - Pharma RUO</t>
+  </si>
+  <si>
+    <t>ISS11000</t>
+  </si>
+  <si>
+    <t>OCT Tissue</t>
+  </si>
+  <si>
+    <t>hsTCRB 1RXN Service (Deep) - Pharma RUO</t>
+  </si>
+  <si>
+    <t>ISS21000</t>
+  </si>
+  <si>
+    <t>hsTCRB 1RXN Service (Survey) - Academic RUO</t>
+  </si>
+  <si>
+    <t>ISS12000</t>
+  </si>
+  <si>
+    <t>hsTCRB 1RXN Service (Deep) - Academic RUO</t>
+  </si>
+  <si>
+    <t>ISS22000</t>
+  </si>
+  <si>
+    <t>hsTCRB 1RXN Service (UltraDeep)</t>
+  </si>
+  <si>
+    <t>ISS80007</t>
+  </si>
+  <si>
+    <t>hsTCRB_v4b Service (Survey) - Pharma RUO</t>
+  </si>
+  <si>
+    <t>ISS11500</t>
+  </si>
+  <si>
+    <t>hsTCRB_v4b Service (Deep) - Pharma RUO</t>
+  </si>
+  <si>
+    <t>ISS11510</t>
+  </si>
+  <si>
+    <t>hsTCRB_v4b Service (Survey) - Academic RUO</t>
+  </si>
+  <si>
+    <t>ISS11520</t>
+  </si>
+  <si>
+    <t>hsTCRB_v4b Service (Deep) - Academic RUO</t>
+  </si>
+  <si>
+    <t>ISS11530</t>
+  </si>
+  <si>
+    <t>hsTCRB_v4b Service (UltraDeep)</t>
+  </si>
+  <si>
+    <t>ISS11540</t>
+  </si>
+  <si>
+    <t>hsTCRB_v4b Service (Survey) - MIRA AMPL</t>
+  </si>
+  <si>
+    <t>ISS11550</t>
+  </si>
+  <si>
+    <t>hsTCRB_v4b Service (UltraDeep) - MIRA AMPL</t>
+  </si>
+  <si>
+    <t>ISS11560</t>
+  </si>
+  <si>
+    <t>hsTCRB_v4b Service (Survey) - MIRA RD</t>
+  </si>
+  <si>
+    <t>ISS11570</t>
+  </si>
+  <si>
+    <t>hsTCRB_v4b Service (Deep) - MIRA RD</t>
+  </si>
+  <si>
+    <t>ISS11580</t>
+  </si>
+  <si>
+    <t>hsTCRB_v4b Service (UltraDeep) - MIRA RD</t>
+  </si>
+  <si>
+    <t>ISS11590</t>
+  </si>
+  <si>
+    <t>hsTCRB_v4b Service (Survey) - MIRA TCR</t>
+  </si>
+  <si>
+    <t>ISS11600</t>
+  </si>
+  <si>
+    <t>hsTCRB_v4b Service (Deep) - MIRA TCR</t>
+  </si>
+  <si>
+    <t>ISS11610</t>
+  </si>
+  <si>
+    <t>hsTCRB_v4b Service (UltraDeep) - MIRA TCR</t>
+  </si>
+  <si>
+    <t>ISS11620</t>
+  </si>
+  <si>
+    <t>immunoSEQ hsTCRB_v4b LymeDx AV (Ultradeep)</t>
+  </si>
+  <si>
+    <t>ISS11630</t>
+  </si>
+  <si>
+    <t>immunoSEQ hsTCRB_v4b CovidDx AV (Ultradeep)</t>
+  </si>
+  <si>
+    <t>ISS11640</t>
+  </si>
+  <si>
+    <t>hsTCRG::Survey</t>
+  </si>
+  <si>
+    <t>ISS10002</t>
+  </si>
+  <si>
+    <t>hsTCRG::Deep</t>
+  </si>
+  <si>
+    <t>ISS20002</t>
+  </si>
+  <si>
+    <t>hsTCRG::UltraDeep</t>
+  </si>
+  <si>
+    <t>ISS30002</t>
+  </si>
+  <si>
+    <t>hsTCRG::MaxDepth</t>
+  </si>
+  <si>
+    <t>ISS40002</t>
+  </si>
+  <si>
+    <t>hsTCRA/D::Survey</t>
+  </si>
+  <si>
+    <t>ISS10003</t>
+  </si>
+  <si>
+    <t>hsTCRA/D::Deep</t>
+  </si>
+  <si>
+    <t>ISS20003</t>
+  </si>
+  <si>
+    <t>hsTCRA/D::UltraDeep</t>
+  </si>
+  <si>
+    <t>ISS30003</t>
+  </si>
+  <si>
+    <t>hsTCRA/D::MaxDepth</t>
+  </si>
+  <si>
+    <t>ISS40003</t>
+  </si>
+  <si>
+    <t>hsIGH::Survey</t>
+  </si>
+  <si>
+    <t>ISS10004</t>
+  </si>
+  <si>
+    <t>hsIGH::Deep</t>
+  </si>
+  <si>
+    <t>ISS20004</t>
+  </si>
+  <si>
+    <t>hsIGH::UltraDeep</t>
+  </si>
+  <si>
+    <t>ISS30004</t>
+  </si>
+  <si>
+    <t>hsIGH::MaxDepth</t>
+  </si>
+  <si>
+    <t>ISS40004</t>
+  </si>
+  <si>
+    <t>mmTCRB::Survey</t>
+  </si>
+  <si>
+    <t>ISS10001</t>
+  </si>
+  <si>
+    <t>mmTCRB::Deep</t>
+  </si>
+  <si>
+    <t>ISS20001</t>
+  </si>
+  <si>
+    <t>mmTCRB::UltraDeep</t>
+  </si>
+  <si>
+    <t>ISS30001</t>
+  </si>
+  <si>
+    <t>mmTCRB::MaxDepth</t>
+  </si>
+  <si>
+    <t>ISS40001</t>
+  </si>
+  <si>
+    <t>mmIGH::Survey</t>
+  </si>
+  <si>
+    <t>ISS10007</t>
+  </si>
+  <si>
+    <t>mmIGH::Deep</t>
+  </si>
+  <si>
+    <t>ISS20007</t>
+  </si>
+  <si>
+    <t>ISS80020</t>
+  </si>
+  <si>
+    <t>ISS80021</t>
+  </si>
+  <si>
+    <t>ISS80022</t>
+  </si>
+  <si>
+    <t>ISS80023</t>
+  </si>
+  <si>
+    <t>SAMPLE_NAME1</t>
+  </si>
+  <si>
+    <t>SAMPLE_NAME2</t>
+  </si>
+  <si>
+    <t>SAMPLE_NAME3</t>
+  </si>
+  <si>
+    <t>SAMPLE_NAME4</t>
+  </si>
+  <si>
+    <t>SAMPLE_NAME5</t>
+  </si>
+  <si>
     <t>A:5</t>
-  </si>
-  <si>
-    <t>Container5</t>
-  </si>
-  <si>
-    <t>clonoSEQ B-cell 2.0 Clonality (IVD + IgHV)</t>
-  </si>
-  <si>
-    <t>&lt;/SAMPLE ENTRIES&gt;</t>
-  </si>
-  <si>
-    <t>Generated by</t>
-  </si>
-  <si>
-    <t>Verified by</t>
-  </si>
-  <si>
-    <t>lookup values driving dropdowns in prior columns:  DO NOT EDIT</t>
-  </si>
-  <si>
-    <t>Product Code Lookup</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>Quant</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Ethinicity</t>
-  </si>
-  <si>
-    <t>B-cell 2.0 Clonality (IUO IVD-extract)</t>
-  </si>
-  <si>
-    <t>CSS70001</t>
-  </si>
-  <si>
-    <t>96 well plate</t>
-  </si>
-  <si>
-    <t>Blood</t>
-  </si>
-  <si>
-    <t>B cells</t>
-  </si>
-  <si>
-    <t>vblocks</t>
-  </si>
-  <si>
-    <t>AutoAcceptQC</t>
-  </si>
-  <si>
-    <t>Cell-free</t>
-  </si>
-  <si>
-    <t>Do Not Quant</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>RemoveFailedReplicates</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>American Indian or Alaska Native</t>
-  </si>
-  <si>
-    <t>Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>B-cell 2.0 Tracking (IUO IVD-extract)</t>
-  </si>
-  <si>
-    <t>CSS70002</t>
-  </si>
-  <si>
-    <t>Bone Marrow Aspirate Slides</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>ManualAcceptQC</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>RetainFailedReplicates</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Not Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>B-cell 2.0 Clonality (RUO)</t>
-  </si>
-  <si>
-    <t>ISS80006</t>
-  </si>
-  <si>
-    <t>Vacutainer box</t>
-  </si>
-  <si>
-    <t>cDNA</t>
-  </si>
-  <si>
-    <t>BMMC</t>
-  </si>
-  <si>
-    <t>AlwaysAcceptQC</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Black or African American</t>
-  </si>
-  <si>
-    <t>B-cell 2.0 Tracking (RUO)</t>
-  </si>
-  <si>
-    <t>ISS80005</t>
-  </si>
-  <si>
-    <t>Conical box</t>
-  </si>
-  <si>
-    <t>Cell Pellet</t>
-  </si>
-  <si>
-    <t>Bone Marrow</t>
-  </si>
-  <si>
-    <t>Native Hawaiian or Other Pacific Islander</t>
-  </si>
-  <si>
-    <t>B-cell 2.0 Clonality (IUO flex-extract)</t>
-  </si>
-  <si>
-    <t>ISS80008</t>
-  </si>
-  <si>
-    <t>25-Slide box</t>
-  </si>
-  <si>
-    <t>Cell Suspension</t>
-  </si>
-  <si>
-    <t>Lymphatic Tissue</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>B-cell 2.0 Tracking (IUO flex-extract)</t>
-  </si>
-  <si>
-    <t>ISS80009</t>
-  </si>
-  <si>
-    <t>100-Slide box</t>
-  </si>
-  <si>
-    <t>cfDNA</t>
-  </si>
-  <si>
-    <t>PBMC</t>
-  </si>
-  <si>
-    <t>B-cell 2.0 Clonality (GCLP RUO)</t>
-  </si>
-  <si>
-    <t>ISS80010</t>
-  </si>
-  <si>
-    <t>Slide</t>
-  </si>
-  <si>
-    <t>FFPE Scrolls</t>
-  </si>
-  <si>
-    <t>Skin</t>
-  </si>
-  <si>
-    <t>B-cell 2.0 Tracking (GCLP RUO)</t>
-  </si>
-  <si>
-    <t>ISS80011</t>
-  </si>
-  <si>
-    <t>Slide w/ coverslip</t>
-  </si>
-  <si>
-    <t>FFPE Slides</t>
-  </si>
-  <si>
-    <t>Splenocyte</t>
-  </si>
-  <si>
-    <t>hsTCRB::Survey</t>
-  </si>
-  <si>
-    <t>ISS10000</t>
-  </si>
-  <si>
-    <t>Matrix rack (8x12)</t>
-  </si>
-  <si>
-    <t>Fresh Bone Marrow</t>
-  </si>
-  <si>
-    <t>T cells</t>
-  </si>
-  <si>
-    <t>hsTCRB::Deep</t>
-  </si>
-  <si>
-    <t>ISS20000</t>
-  </si>
-  <si>
-    <t>Matrix rack (4x6)</t>
-  </si>
-  <si>
-    <t>gDNA</t>
-  </si>
-  <si>
-    <t>Tissue</t>
-  </si>
-  <si>
-    <t>hsTCRB::UltraDeep</t>
-  </si>
-  <si>
-    <t>ISS30000</t>
-  </si>
-  <si>
-    <t>Matrix tube</t>
-  </si>
-  <si>
-    <t>Plasma</t>
-  </si>
-  <si>
-    <t>hsTCRB::MaxDepth</t>
-  </si>
-  <si>
-    <t>ISS40000</t>
-  </si>
-  <si>
-    <t>Matrix tube (5ml)</t>
-  </si>
-  <si>
-    <t>Powdered Tissue</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>hsTCRB::Counting8rxns</t>
-  </si>
-  <si>
-    <t>PSS00003</t>
-  </si>
-  <si>
-    <t>Tube</t>
-  </si>
-  <si>
-    <t>Serum</t>
-  </si>
-  <si>
-    <t>hsTCRB 1RXN Service (Survey) - Pharma RUO</t>
-  </si>
-  <si>
-    <t>ISS11000</t>
-  </si>
-  <si>
-    <t>OCT Tissue</t>
-  </si>
-  <si>
-    <t>hsTCRB 1RXN Service (Deep) - Pharma RUO</t>
-  </si>
-  <si>
-    <t>ISS21000</t>
-  </si>
-  <si>
-    <t>hsTCRB 1RXN Service (Survey) - Academic RUO</t>
-  </si>
-  <si>
-    <t>ISS12000</t>
-  </si>
-  <si>
-    <t>hsTCRB 1RXN Service (Deep) - Academic RUO</t>
-  </si>
-  <si>
-    <t>ISS22000</t>
-  </si>
-  <si>
-    <t>hsTCRB 1RXN Service (UltraDeep)</t>
-  </si>
-  <si>
-    <t>ISS80007</t>
-  </si>
-  <si>
-    <t>hsTCRB_v4b Service (Survey) - Pharma RUO</t>
-  </si>
-  <si>
-    <t>ISS11500</t>
-  </si>
-  <si>
-    <t>hsTCRB_v4b Service (Deep) - Pharma RUO</t>
-  </si>
-  <si>
-    <t>ISS11510</t>
-  </si>
-  <si>
-    <t>hsTCRB_v4b Service (Survey) - Academic RUO</t>
-  </si>
-  <si>
-    <t>ISS11520</t>
-  </si>
-  <si>
-    <t>hsTCRB_v4b Service (Deep) - Academic RUO</t>
-  </si>
-  <si>
-    <t>ISS11530</t>
-  </si>
-  <si>
-    <t>hsTCRB_v4b Service (UltraDeep)</t>
-  </si>
-  <si>
-    <t>ISS11540</t>
-  </si>
-  <si>
-    <t>hsTCRB_v4b Service (Survey) - MIRA AMPL</t>
-  </si>
-  <si>
-    <t>ISS11550</t>
-  </si>
-  <si>
-    <t>hsTCRB_v4b Service (UltraDeep) - MIRA AMPL</t>
-  </si>
-  <si>
-    <t>ISS11560</t>
-  </si>
-  <si>
-    <t>hsTCRB_v4b Service (Survey) - MIRA RD</t>
-  </si>
-  <si>
-    <t>ISS11570</t>
-  </si>
-  <si>
-    <t>hsTCRB_v4b Service (Deep) - MIRA RD</t>
-  </si>
-  <si>
-    <t>ISS11580</t>
-  </si>
-  <si>
-    <t>hsTCRB_v4b Service (UltraDeep) - MIRA RD</t>
-  </si>
-  <si>
-    <t>ISS11590</t>
-  </si>
-  <si>
-    <t>hsTCRB_v4b Service (Survey) - MIRA TCR</t>
-  </si>
-  <si>
-    <t>ISS11600</t>
-  </si>
-  <si>
-    <t>hsTCRB_v4b Service (Deep) - MIRA TCR</t>
-  </si>
-  <si>
-    <t>ISS11610</t>
-  </si>
-  <si>
-    <t>hsTCRB_v4b Service (UltraDeep) - MIRA TCR</t>
-  </si>
-  <si>
-    <t>ISS11620</t>
-  </si>
-  <si>
-    <t>immunoSEQ hsTCRB_v4b LymeDx AV (Ultradeep)</t>
-  </si>
-  <si>
-    <t>ISS11630</t>
-  </si>
-  <si>
-    <t>immunoSEQ hsTCRB_v4b CovidDx AV (Ultradeep)</t>
-  </si>
-  <si>
-    <t>ISS11640</t>
-  </si>
-  <si>
-    <t>hsTCRG::Survey</t>
-  </si>
-  <si>
-    <t>ISS10002</t>
-  </si>
-  <si>
-    <t>hsTCRG::Deep</t>
-  </si>
-  <si>
-    <t>ISS20002</t>
-  </si>
-  <si>
-    <t>hsTCRG::UltraDeep</t>
-  </si>
-  <si>
-    <t>ISS30002</t>
-  </si>
-  <si>
-    <t>hsTCRG::MaxDepth</t>
-  </si>
-  <si>
-    <t>ISS40002</t>
-  </si>
-  <si>
-    <t>hsTCRA/D::Survey</t>
-  </si>
-  <si>
-    <t>ISS10003</t>
-  </si>
-  <si>
-    <t>hsTCRA/D::Deep</t>
-  </si>
-  <si>
-    <t>ISS20003</t>
-  </si>
-  <si>
-    <t>hsTCRA/D::UltraDeep</t>
-  </si>
-  <si>
-    <t>ISS30003</t>
-  </si>
-  <si>
-    <t>hsTCRA/D::MaxDepth</t>
-  </si>
-  <si>
-    <t>ISS40003</t>
-  </si>
-  <si>
-    <t>hsIGH::Survey</t>
-  </si>
-  <si>
-    <t>ISS10004</t>
-  </si>
-  <si>
-    <t>hsIGH::Deep</t>
-  </si>
-  <si>
-    <t>ISS20004</t>
-  </si>
-  <si>
-    <t>hsIGH::UltraDeep</t>
-  </si>
-  <si>
-    <t>ISS30004</t>
-  </si>
-  <si>
-    <t>hsIGH::MaxDepth</t>
-  </si>
-  <si>
-    <t>ISS40004</t>
-  </si>
-  <si>
-    <t>mmTCRB::Survey</t>
-  </si>
-  <si>
-    <t>ISS10001</t>
-  </si>
-  <si>
-    <t>mmTCRB::Deep</t>
-  </si>
-  <si>
-    <t>ISS20001</t>
-  </si>
-  <si>
-    <t>mmTCRB::UltraDeep</t>
-  </si>
-  <si>
-    <t>ISS30001</t>
-  </si>
-  <si>
-    <t>mmTCRB::MaxDepth</t>
-  </si>
-  <si>
-    <t>ISS40001</t>
-  </si>
-  <si>
-    <t>mmIGH::Survey</t>
-  </si>
-  <si>
-    <t>ISS10007</t>
-  </si>
-  <si>
-    <t>mmIGH::Deep</t>
-  </si>
-  <si>
-    <t>ISS20007</t>
-  </si>
-  <si>
-    <t>ISS80020</t>
-  </si>
-  <si>
-    <t>ISS80021</t>
-  </si>
-  <si>
-    <t>ISS80022</t>
-  </si>
-  <si>
-    <t>ISS80023</t>
-  </si>
-  <si>
-    <t>CSS80024</t>
-  </si>
-  <si>
-    <t>SAMPLE_NAME1</t>
-  </si>
-  <si>
-    <t>SAMPLE_NAME2</t>
-  </si>
-  <si>
-    <t>SAMPLE_NAME3</t>
-  </si>
-  <si>
-    <t>SAMPLE_NAME4</t>
-  </si>
-  <si>
-    <t>SAMPLE_NAME5</t>
-  </si>
-  <si>
-    <t>Box2</t>
-  </si>
-  <si>
-    <t>A:6</t>
-  </si>
-  <si>
-    <t>Container6</t>
-  </si>
-  <si>
-    <t>SAMPLE_NAME6</t>
   </si>
 </sst>
 </file>
@@ -1491,11 +1473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="A1:AMJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1784,13 +1766,13 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" ref="I7:I12" si="0">VLOOKUP(H7, SKU_VLookup, 2, 0)</f>
+        <f t="shared" ref="I7:I11" si="0">VLOOKUP(H7, SKU_VLookup, 2, 0)</f>
         <v>ISS80020</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1825,7 +1807,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="34" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>55</v>
@@ -1866,7 +1848,7 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>58</v>
@@ -1907,7 +1889,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="34" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>61</v>
@@ -1941,21 +1923,21 @@
         <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>62</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>63</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="34" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CSS80024</v>
+        <v>ISS80006</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>51</v>
@@ -1974,84 +1956,43 @@
       <c r="Z11" s="10"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ISS80006</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
+      <c r="A12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
       <c r="Z12" s="10"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="10"/>
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2060,37 +2001,37 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B12" xr:uid="{A5BBD9B9-53A1-419D-B10E-EC2A2680C95A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B11" xr:uid="{A5BBD9B9-53A1-419D-B10E-EC2A2680C95A}">
       <formula1>Container_Types</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H12" xr:uid="{79F10375-3BFC-5A4E-A8A8-497C0F3F577C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H11" xr:uid="{79F10375-3BFC-5A4E-A8A8-497C0F3F577C}">
       <formula1>Product_Names</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:N12" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:N11" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Booleans</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:O12" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:O11" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>PCO</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q12" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q11" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Accept_QC</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R7:R12" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R7:R11" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Directives</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7:S12" xr:uid="{461F18D9-D653-C741-8554-006DF05D68E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7:S11" xr:uid="{461F18D9-D653-C741-8554-006DF05D68E5}">
       <formula1>Specimen_Types</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T12" xr:uid="{63EDF843-7C84-9044-8E19-B1F843B45612}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T11" xr:uid="{63EDF843-7C84-9044-8E19-B1F843B45612}">
       <formula1>Specimen_Sources</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:V12" xr:uid="{7989122B-073E-4944-AE84-5D1B9E20F671}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:V11" xr:uid="{7989122B-073E-4944-AE84-5D1B9E20F671}">
       <formula1>Compartment</formula1>
     </dataValidation>
   </dataValidations>
@@ -2101,10 +2042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AMJ59"/>
+  <dimension ref="A2:AMJ58"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2128,7 +2069,7 @@
   <sheetData>
     <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -2147,10 +2088,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>20</v>
@@ -2162,7 +2103,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>33</v>
@@ -2174,222 +2115,222 @@
         <v>40</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L3" s="30" t="s">
         <v>36</v>
       </c>
       <c r="M3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="D4" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="E4" s="31" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>81</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="J4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="D6" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="E6" s="31" t="s">
         <v>103</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>105</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="D7" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="E7" s="31" t="s">
         <v>111</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>113</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
       <c r="N7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="E8" s="31" t="s">
         <v>117</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>119</v>
       </c>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
       <c r="N8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="E9" s="31" t="s">
         <v>123</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>125</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="N9" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="E10" s="31" t="s">
         <v>128</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>130</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -2397,19 +2338,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="E11" s="31" t="s">
         <v>133</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>135</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -2417,19 +2358,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="D12" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="E12" s="31" t="s">
         <v>138</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>140</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
@@ -2437,19 +2378,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="D13" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="31" t="s">
         <v>143</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>145</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -2457,19 +2398,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="D14" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>149</v>
-      </c>
       <c r="E14" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -2477,19 +2418,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="D15" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="31" t="s">
         <v>152</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>154</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -2497,16 +2438,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="D16" s="31" t="s">
         <v>156</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>158</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -2515,14 +2456,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -2531,14 +2472,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -2547,10 +2488,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -2561,10 +2502,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -2575,10 +2516,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
@@ -2589,10 +2530,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
@@ -2603,10 +2544,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -2617,10 +2558,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -2631,10 +2572,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -2645,10 +2586,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
@@ -2659,10 +2600,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
@@ -2673,10 +2614,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
@@ -2687,10 +2628,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
@@ -2701,10 +2642,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
@@ -2715,10 +2656,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
@@ -2729,10 +2670,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
@@ -2743,10 +2684,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
@@ -2757,10 +2698,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
@@ -2771,10 +2712,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="31"/>
@@ -2785,10 +2726,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C36" s="31"/>
       <c r="D36" s="31"/>
@@ -2799,10 +2740,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C37" s="31"/>
       <c r="D37" s="31"/>
@@ -2813,10 +2754,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C38" s="31"/>
       <c r="D38" s="31"/>
@@ -2827,10 +2768,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
@@ -2841,10 +2782,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
@@ -2855,10 +2796,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C41" s="31"/>
       <c r="D41" s="31"/>
@@ -2869,10 +2810,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
@@ -2883,10 +2824,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
@@ -2897,10 +2838,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C44" s="31"/>
       <c r="D44" s="31"/>
@@ -2911,10 +2852,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C45" s="31"/>
       <c r="D45" s="31"/>
@@ -2925,10 +2866,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C46" s="31"/>
       <c r="D46" s="31"/>
@@ -2939,10 +2880,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
@@ -2953,10 +2894,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
@@ -2967,10 +2908,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
@@ -2981,10 +2922,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
@@ -2995,10 +2936,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="32"/>
@@ -3009,10 +2950,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C52" s="31"/>
       <c r="D52" s="32"/>
@@ -3023,10 +2964,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C53" s="31"/>
       <c r="D53" s="32"/>
@@ -3037,10 +2978,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
@@ -3052,7 +2993,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D55" s="32"/>
       <c r="F55" s="32"/>
@@ -3063,7 +3004,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C56" s="32"/>
       <c r="D56" s="32"/>
@@ -3075,7 +3016,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C57" s="32"/>
       <c r="F57" s="32"/>
@@ -3086,15 +3027,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
